--- a/data/places.xlsx
+++ b/data/places.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20393"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ISR_YouBeOn\Atlas\acdhch 09 11 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ISR_YouBeOn\Atlas\Finaler Datensatz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEC3E436-A683-4090-8D5C-328C0F1F6019}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBA72938-C4BB-4F5C-96F8-A285920486C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="1571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="1554">
   <si>
     <r>
       <rPr>
@@ -245,15 +245,6 @@
     <t>51,08342, 10,42345 - 51,08342, 10,42345</t>
   </si>
   <si>
-    <t>4:24</t>
-  </si>
-  <si>
-    <t>OR: Schleswig-Holstein, Deutschland</t>
-  </si>
-  <si>
-    <t>54,1854, 9,822009 - 54,1854, 9,822009</t>
-  </si>
-  <si>
     <t>4:25</t>
   </si>
   <si>
@@ -437,7 +428,7 @@
     <t>4:48</t>
   </si>
   <si>
-    <t>OL: Israel</t>
+    <t>OL: Israel/Palästina</t>
   </si>
   <si>
     <t>31,53131, 34,86676 - 31,53131, 34,86676</t>
@@ -554,7 +545,7 @@
     <t>4:64</t>
   </si>
   <si>
-    <t>OL: England</t>
+    <t>OL: Vereinigtes Königreich</t>
   </si>
   <si>
     <t>52,53102, -1,264906 - 52,53102, -1,264906</t>
@@ -1019,21 +1010,6 @@
     <t>48,23434, 16,41046 - 48,23434, 16,41046</t>
   </si>
   <si>
-    <t>4:125</t>
-  </si>
-  <si>
-    <t>54,70235, -3,276575 - 54,70235, -3,276575</t>
-  </si>
-  <si>
-    <t>4:126</t>
-  </si>
-  <si>
-    <t>OL: Tschetschenien</t>
-  </si>
-  <si>
-    <t>43,39761, 45,6985 - 43,39761, 45,6985</t>
-  </si>
-  <si>
     <t>4:127</t>
   </si>
   <si>
@@ -1352,7 +1328,7 @@
     <t>4:165</t>
   </si>
   <si>
-    <t>OS: London, Vereinigtes Königreich</t>
+    <t>OS: London, England</t>
   </si>
   <si>
     <t>51,50732, -,127647 - 51,50732, -,127647</t>
@@ -1394,15 +1370,6 @@
     <t>46,04998, 14,50686 - 46,04998, 14,50686</t>
   </si>
   <si>
-    <t>4:171</t>
-  </si>
-  <si>
-    <t>OR: Mount Everest, Nepal</t>
-  </si>
-  <si>
-    <t>27,98824, 86,92502 - 27,98824, 86,92502</t>
-  </si>
-  <si>
     <t>4:172</t>
   </si>
   <si>
@@ -1667,7 +1634,7 @@
     <t>4:203</t>
   </si>
   <si>
-    <t>OR: Texas, USA</t>
+    <t>OS: Houston, Texas, USA</t>
   </si>
   <si>
     <t>31,16857, -99,683 - 31,16857, -99,683</t>
@@ -2012,15 +1979,6 @@
     <t>46,62282, 14,30796 - 46,62282, 14,30796</t>
   </si>
   <si>
-    <t>4:245</t>
-  </si>
-  <si>
-    <t>O: Friedhof der Namenlosen, 1110</t>
-  </si>
-  <si>
-    <t>48,15973, 16,50259 - 48,15973, 16,50259</t>
-  </si>
-  <si>
     <t>4:246</t>
   </si>
   <si>
@@ -2780,7 +2738,7 @@
     <t>4:335</t>
   </si>
   <si>
-    <t>OL: Qatar</t>
+    <t>OL: Katar</t>
   </si>
   <si>
     <t>25,3337, 51,22953 - 25,3337, 51,22953</t>
@@ -2864,15 +2822,6 @@
     <t>31,1667, 36,94163 - 31,1667, 36,94163</t>
   </si>
   <si>
-    <t>4:346</t>
-  </si>
-  <si>
-    <t>OL: Jamaika</t>
-  </si>
-  <si>
-    <t>18,1153, -77,15984 - 18,1153, -77,15984</t>
-  </si>
-  <si>
     <t>4:347</t>
   </si>
   <si>
@@ -3047,7 +2996,7 @@
     <t>4:366</t>
   </si>
   <si>
-    <t>A: Attersee</t>
+    <t>OR: Attersee, Oberösterreich</t>
   </si>
   <si>
     <t>47,87102, 13,54449 - 47,87102, 13,54449</t>
@@ -3899,15 +3848,6 @@
     <t>48,21581, 16,39937 - 48,21581, 16,39937</t>
   </si>
   <si>
-    <t>4:464</t>
-  </si>
-  <si>
-    <t>OL: Niederlande</t>
-  </si>
-  <si>
-    <t>52,15517, 5,38721 - 52,15517, 5,38721</t>
-  </si>
-  <si>
     <t>4:465</t>
   </si>
   <si>
@@ -4734,6 +4674,15 @@
   </si>
   <si>
     <t>48,19327, 16,3916 - 48,19327, 16,3916</t>
+  </si>
+  <si>
+    <t>4:589</t>
+  </si>
+  <si>
+    <t>O: Sikh Glaubensgemeinschaft Österreich</t>
+  </si>
+  <si>
+    <t>48,18291, 16,3356 - 48,18291, 16,3356</t>
   </si>
   <si>
     <r>
@@ -4789,7 +4738,7 @@
     </r>
   </si>
   <si>
-    <t>09.11.2022 - 11:34:51</t>
+    <t>13.01.2023 - 09:43:09</t>
   </si>
 </sst>
 </file>
@@ -5165,8 +5114,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089A5D4F-60BE-42B5-B912-669B49AC6F83}">
-  <dimension ref="A1:C524"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7530AE66-7FDB-44CA-9FEB-6C898C1257C5}">
+  <dimension ref="A1:C518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5576,7 +5525,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>108</v>
       </c>
@@ -5587,7 +5536,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>111</v>
       </c>
@@ -5752,7 +5701,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>156</v>
       </c>
@@ -5763,7 +5712,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>159</v>
       </c>
@@ -5939,7 +5888,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>207</v>
       </c>
@@ -5950,7 +5899,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>210</v>
       </c>
@@ -5988,40 +5937,40 @@
         <v>219</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>227</v>
@@ -6384,799 +6333,799 @@
         <v>324</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>169</v>
+        <v>325</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>540</v>
+        <v>109</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>541</v>
@@ -7215,639 +7164,639 @@
         <v>550</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>551</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>112</v>
+        <v>552</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>722</v>
+        <v>28</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>723</v>
@@ -7869,40 +7818,40 @@
         <v>727</v>
       </c>
       <c r="B245" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C245" s="5" t="s">
         <v>728</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="B246" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="C246" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="C246" s="5" t="s">
+    </row>
+    <row r="247" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A247" s="3" t="s">
+      <c r="B247" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="C247" s="5" t="s">
         <v>734</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="B248" s="4" t="s">
         <v>736</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>737</v>
@@ -7919,139 +7868,139 @@
         <v>740</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>741</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>626</v>
+        <v>742</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>774</v>
+        <v>505</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>776</v>
       </c>
@@ -8073,7 +8022,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>782</v>
       </c>
@@ -8084,7 +8033,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>785</v>
       </c>
@@ -8100,491 +8049,491 @@
         <v>788</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>516</v>
+        <v>789</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>920</v>
+        <v>855</v>
       </c>
       <c r="C310" s="5" t="s">
         <v>921</v>
@@ -8601,7 +8550,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>925</v>
       </c>
@@ -8639,2309 +8588,2243 @@
         <v>934</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>869</v>
+        <v>935</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A352" s="3" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A353" s="3" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A359" s="3" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A361" s="3" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A364" s="3" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="370" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A371" s="3" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A372" s="3" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="374" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="377" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="381" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="385" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A387" s="3" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="388" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="389" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="390" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="391" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="393" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="394" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="395" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="396" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="397" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="398" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="399" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A399" s="3" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="400" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A400" s="3" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C400" s="5" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="401" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A401" s="3" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="402" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="403" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="404" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="405" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="406" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="407" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="408" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="409" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="410" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="411" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="412" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="414" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="415" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="416" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="417" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="418" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="420" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="421" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="422" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A422" s="3" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="423" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="424" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="425" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="426" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A426" s="3" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="427" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A427" s="3" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="428" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A428" s="3" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="429" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A429" s="3" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="430" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A430" s="3" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="431" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="432" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="433" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="434" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="435" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A435" s="3" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="436" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="437" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A437" s="3" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A438" s="3" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A439" s="3" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="440" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A440" s="3" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="441" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A441" s="3" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="442" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A442" s="3" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="443" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A443" s="3" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="444" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A444" s="3" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="445" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="446" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A446" s="3" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A447" s="3" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="449" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A449" s="3" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="450" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="451" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="452" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="453" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A453" s="3" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A454" s="3" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="455" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="456" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="457" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="458" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="459" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="460" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="461" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A461" s="3" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="462" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A462" s="3" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="463" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A463" s="3" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="464" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="465" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="466" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="467" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="470" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="C470" s="5" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="472" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="C472" s="5" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="473" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C473" s="5" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="474" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C474" s="5" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="C475" s="5" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="C476" s="5" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="477" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C477" s="5" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="C478" s="5" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="C479" s="5" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="480" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="C480" s="5" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="481" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="C481" s="5" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="482" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="C482" s="5" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="483" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C483" s="5" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="484" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C484" s="5" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="C485" s="5" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="486" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C486" s="5" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="487" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C487" s="5" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="488" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="C488" s="5" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="489" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="C489" s="5" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="490" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C490" s="5" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C491" s="5" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="C492" s="5" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="493" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="C493" s="5" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="494" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="C494" s="5" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="495" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="C495" s="5" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="496" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="C496" s="5" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="497" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="C497" s="5" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="498" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="C498" s="5" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="499" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="C499" s="5" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="500" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="C500" s="5" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="501" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="C501" s="5" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="502" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="C502" s="5" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="503" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="C503" s="5" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="504" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C504" s="5" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="505" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="C505" s="5" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="506" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C506" s="5" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="507" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="C507" s="5" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C508" s="5" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="509" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="C509" s="5" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="510" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="C510" s="5" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="511" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C511" s="5" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="512" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="C512" s="5" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="513" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="C513" s="5" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="514" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="C514" s="5" t="s">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="C515" s="5" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="516" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C516" s="5" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="517" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="C517" s="5" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="518" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="C518" s="5" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A519" s="3" t="s">
         <v>1545</v>
-      </c>
-      <c r="B519" s="4" t="s">
-        <v>1546</v>
-      </c>
-      <c r="C519" s="5" t="s">
-        <v>1547</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A520" s="3" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B520" s="4" t="s">
-        <v>1549</v>
-      </c>
-      <c r="C520" s="5" t="s">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A521" s="3" t="s">
-        <v>1551</v>
-      </c>
-      <c r="B521" s="4" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C521" s="5" t="s">
-        <v>1553</v>
-      </c>
-    </row>
-    <row r="522" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A522" s="3" t="s">
-        <v>1554</v>
-      </c>
-      <c r="B522" s="4" t="s">
-        <v>1555</v>
-      </c>
-      <c r="C522" s="5" t="s">
-        <v>1556</v>
-      </c>
-    </row>
-    <row r="523" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A523" s="3" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B523" s="4" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C523" s="5" t="s">
-        <v>1559</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A524" s="3" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B524" s="4" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C524" s="5" t="s">
-        <v>1562</v>
       </c>
     </row>
   </sheetData>
@@ -10951,7 +10834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D79383C-9D52-418A-AAB6-79A2A1C34B36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9679A449-5872-4A79-A5B4-DF922DA473C9}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10964,34 +10847,34 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1563</v>
+        <v>1546</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1564</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1565</v>
+        <v>1548</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1566</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1567</v>
+        <v>1550</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1568</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1569</v>
+        <v>1552</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1570</v>
+        <v>1553</v>
       </c>
     </row>
   </sheetData>
@@ -11227,13 +11110,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9EC3FEB-EE40-4E01-B5CD-245E9E338096}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AFC4FC8-0D13-470F-87F1-617CDDDAF198}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{188A4B3C-D948-4D9A-AA89-B768A2764ADB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7B58ADD-30D1-4214-8D6F-5ADE6A05A282}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E4E6B43-EAD8-4AB6-9AB6-A6B68B7EAC2B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC053FBA-D14D-4721-B8FD-B508A9994FB6}"/>
 </file>
--- a/data/places.xlsx
+++ b/data/places.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ISR_YouBeOn\Atlas\Finaler Datensatz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBA72938-C4BB-4F5C-96F8-A285920486C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07226B25-AC1F-419D-8C59-EE26847884E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="1554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="1557">
   <si>
     <r>
       <rPr>
@@ -1301,7 +1301,7 @@
     <t>4:161</t>
   </si>
   <si>
-    <t>O: Synagoge, Stibl, 1010</t>
+    <t>O: Synagoge, Stiebl, 1010</t>
   </si>
   <si>
     <t>48,20737, 16,37527 - 48,20737, 16,37527</t>
@@ -4046,15 +4046,6 @@
     <t>48,31007, 16,32575 - 48,31007, 16,32575</t>
   </si>
   <si>
-    <t>4:487</t>
-  </si>
-  <si>
-    <t>OR: Thessaloniki, Griechenland</t>
-  </si>
-  <si>
-    <t>40,64161, 22,92479 - 40,64161, 22,92479</t>
-  </si>
-  <si>
     <t>4:488</t>
   </si>
   <si>
@@ -4683,6 +4674,24 @@
   </si>
   <si>
     <t>48,18291, 16,3356 - 48,18291, 16,3356</t>
+  </si>
+  <si>
+    <t>4:590</t>
+  </si>
+  <si>
+    <t>O: Liberty Church, Amsterdam, Niederlande</t>
+  </si>
+  <si>
+    <t>52,3612, 4,873461 - 52,3612, 4,873461</t>
+  </si>
+  <si>
+    <t>4:591</t>
+  </si>
+  <si>
+    <t>O: Zeitenlik, Thessaloniki, Griechenland</t>
+  </si>
+  <si>
+    <t>40,65426, 22,93293 - 40,65426, 22,93293</t>
   </si>
   <si>
     <r>
@@ -4738,7 +4747,7 @@
     </r>
   </si>
   <si>
-    <t>13.01.2023 - 09:43:09</t>
+    <t>24.01.2023 - 10:59:21</t>
   </si>
 </sst>
 </file>
@@ -5114,8 +5123,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7530AE66-7FDB-44CA-9FEB-6C898C1257C5}">
-  <dimension ref="A1:C518"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1508E33-B3B1-4635-B79E-6A7A2531A8C0}">
+  <dimension ref="A1:C519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10255,7 +10264,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
         <v>1390</v>
       </c>
@@ -10277,7 +10286,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
         <v>1396</v>
       </c>
@@ -10288,7 +10297,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
         <v>1399</v>
       </c>
@@ -10299,7 +10308,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
         <v>1402</v>
       </c>
@@ -10442,7 +10451,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="484" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
         <v>1441</v>
       </c>
@@ -10453,7 +10462,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
         <v>1444</v>
       </c>
@@ -10695,7 +10704,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="507" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
         <v>1510</v>
       </c>
@@ -10706,7 +10715,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="508" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
         <v>1513</v>
       </c>
@@ -10825,6 +10834,17 @@
       </c>
       <c r="C518" s="5" t="s">
         <v>1545</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A519" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B519" s="4" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C519" s="5" t="s">
+        <v>1548</v>
       </c>
     </row>
   </sheetData>
@@ -10834,7 +10854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9679A449-5872-4A79-A5B4-DF922DA473C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9596D90B-B450-4C1F-B579-C22603ED28C6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10847,34 +10867,34 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
     </row>
   </sheetData>
@@ -10884,8 +10904,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B20503A9E85A9A4D8704AD6DAB1F1010" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="e440d241f576dea698e2ea8cd237ea82">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="05450bd9-eec5-42a8-85cc-afca79094646" xmlns:ns3="803a0e2a-20b6-4dfc-b857-1f30c27242b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="860fbdfbabf09ed8a19e786fdd27c92d" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B20503A9E85A9A4D8704AD6DAB1F1010" ma:contentTypeVersion="14" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="a2a4c04a093f57345ba4e534a1861720">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="05450bd9-eec5-42a8-85cc-afca79094646" xmlns:ns3="803a0e2a-20b6-4dfc-b857-1f30c27242b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98eb2637db90897aaef3e6ea02430fa4" ns2:_="" ns3:_="">
     <xsd:import namespace="05450bd9-eec5-42a8-85cc-afca79094646"/>
     <xsd:import namespace="803a0e2a-20b6-4dfc-b857-1f30c27242b3"/>
     <xsd:element name="properties">
@@ -10905,6 +10925,8 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -10964,6 +10986,13 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkierungen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d4a9df8e-f349-4444-a116-c467c435423c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="803a0e2a-20b6-4dfc-b857-1f30c27242b3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -10993,6 +11022,17 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{cbe572a7-bfc9-4bb3-b238-dc88d71865bc}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="803a0e2a-20b6-4dfc-b857-1f30c27242b3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -11105,18 +11145,23 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="05450bd9-eec5-42a8-85cc-afca79094646">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="803a0e2a-20b6-4dfc-b857-1f30c27242b3" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AFC4FC8-0D13-470F-87F1-617CDDDAF198}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7EE2ED-C936-4867-9A75-5E4D3077A1B1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F7B58ADD-30D1-4214-8D6F-5ADE6A05A282}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3680A329-1E02-4971-AA9D-0033BC98723E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC053FBA-D14D-4721-B8FD-B508A9994FB6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{998689B2-2225-4D1C-8C82-411AF41E99C3}"/>
 </file>
--- a/data/places.xlsx
+++ b/data/places.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ISR_YouBeOn\Atlas\Finaler Datensatz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ISR_YouBeOn\Atlas\Finaler Datensatz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07226B25-AC1F-419D-8C59-EE26847884E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57E4E88C-A852-40A2-9E9E-AF2DAED0373D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zitat-Manager" sheetId="1" r:id="rId1"/>
@@ -4733,7 +4733,7 @@
     </r>
   </si>
   <si>
-    <t>Christoph Novak</t>
+    <t>Institut für Stadt und Regionalforschung Österreichische Akademie der Wissenschaften</t>
   </si>
   <si>
     <r>
@@ -4747,7 +4747,7 @@
     </r>
   </si>
   <si>
-    <t>24.01.2023 - 10:59:21</t>
+    <t>30.01.2023 - 13:59:13</t>
   </si>
 </sst>
 </file>
@@ -5123,7 +5123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1508E33-B3B1-4635-B79E-6A7A2531A8C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EFC6BB-6C0E-4039-BAEA-71097AE5D731}">
   <dimension ref="A1:C519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5131,14 +5131,14 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>63</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>66</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>69</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>72</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>75</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>78</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>81</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>84</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>87</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>90</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>93</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>96</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>99</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>102</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>105</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>108</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>111</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>114</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>117</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>120</v>
       </c>
@@ -5589,7 +5589,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>123</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>126</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>129</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>132</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>135</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>138</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>141</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>144</v>
       </c>
@@ -5677,7 +5677,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>147</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>150</v>
       </c>
@@ -5699,7 +5699,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>153</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>156</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>159</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>162</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>165</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>168</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>171</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>174</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>177</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>180</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>183</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>186</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>189</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>192</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>195</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>198</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>201</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>204</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>207</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>210</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>213</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>216</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>219</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>221</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>223</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>225</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>228</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>231</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>234</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>237</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>240</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>243</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>246</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>249</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>252</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>255</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>258</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>261</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>264</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>267</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>270</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>273</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>276</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>279</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>282</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>285</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>288</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>291</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>294</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>297</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>300</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>303</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>306</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>309</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>312</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>315</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>318</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>321</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>324</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>327</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>330</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>333</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>336</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>339</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>342</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>345</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>348</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>351</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>354</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>357</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>360</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>363</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>366</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>369</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>372</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>375</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>378</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>381</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>384</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>387</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>390</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>393</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>396</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>399</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>402</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>405</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>408</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>411</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>414</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>417</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>420</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>423</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>426</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>429</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>432</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>435</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>438</v>
       </c>
@@ -6766,7 +6766,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>441</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>444</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>447</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>450</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>453</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>456</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>459</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>462</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>465</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>468</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>471</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>474</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>477</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>480</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>483</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>486</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>489</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>492</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>495</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>498</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>501</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>504</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>507</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>510</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>513</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>516</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>519</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>522</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>525</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>528</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>531</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>534</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>537</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>540</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>542</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>545</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>548</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>551</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>554</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>557</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>560</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>563</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>566</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>569</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>572</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>575</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>578</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>581</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>584</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>587</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>590</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>593</v>
       </c>
@@ -7338,7 +7338,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>596</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>599</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>602</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>605</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>608</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>611</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>614</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>617</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>620</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>623</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>626</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>629</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>632</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>635</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>638</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>641</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>644</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>647</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>650</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>653</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>656</v>
       </c>
@@ -7569,7 +7569,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>659</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>662</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>665</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>668</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>671</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>674</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>677</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>680</v>
       </c>
@@ -7657,7 +7657,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>683</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>686</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>689</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>692</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>695</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>698</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>701</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>704</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>707</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>710</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>713</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>716</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>719</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>722</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>724</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>727</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>729</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>732</v>
       </c>
@@ -7855,7 +7855,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>735</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>738</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>741</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>744</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>747</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>750</v>
       </c>
@@ -7921,7 +7921,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>753</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>756</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>759</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>762</v>
       </c>
@@ -7965,7 +7965,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>765</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>768</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>771</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>774</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>776</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>779</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>782</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>785</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>788</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>791</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>794</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>797</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>800</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>803</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>806</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>809</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>812</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>815</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>818</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>821</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>824</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>827</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>830</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>833</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>836</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>839</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>842</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>845</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>848</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>851</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>854</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>857</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>860</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>863</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>866</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>869</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>872</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>875</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>878</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>881</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>884</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>887</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>890</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>893</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>896</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>899</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
         <v>902</v>
       </c>
@@ -8482,7 +8482,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>905</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
         <v>908</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>911</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>914</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>917</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>920</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>922</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
         <v>925</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>928</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>931</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>934</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>937</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>940</v>
       </c>
@@ -8625,7 +8625,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>943</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>946</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
         <v>949</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>952</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
         <v>955</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>958</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
         <v>961</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>964</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
         <v>967</v>
       </c>
@@ -8724,7 +8724,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>970</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
         <v>973</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
         <v>976</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
         <v>979</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>982</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
         <v>985</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>988</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
         <v>991</v>
       </c>
@@ -8812,7 +8812,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>994</v>
       </c>
@@ -8823,7 +8823,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>997</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>1000</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>1003</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>1006</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>1009</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>1012</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
         <v>1015</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>1018</v>
       </c>
@@ -8911,7 +8911,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
         <v>1021</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>1024</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>1027</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>1030</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>1033</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>1036</v>
       </c>
@@ -8977,7 +8977,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>1039</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>1042</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
         <v>1045</v>
       </c>
@@ -9010,7 +9010,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
         <v>1048</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
         <v>1051</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
         <v>1054</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
         <v>1057</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>1060</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
         <v>1063</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
         <v>1066</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
         <v>1069</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
         <v>1072</v>
       </c>
@@ -9109,7 +9109,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
         <v>1075</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
         <v>1078</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
         <v>1081</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
         <v>1084</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
         <v>1087</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
         <v>1090</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
         <v>1093</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
         <v>1096</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
         <v>1099</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
         <v>1102</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
         <v>1105</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
         <v>1108</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
         <v>1111</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
         <v>1114</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
         <v>1117</v>
       </c>
@@ -9274,7 +9274,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
         <v>1120</v>
       </c>
@@ -9285,7 +9285,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
         <v>1123</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
         <v>1126</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
         <v>1129</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
         <v>1132</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
         <v>1135</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
         <v>1138</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
         <v>1141</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
         <v>1144</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
         <v>1147</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
         <v>1150</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A388" s="3" t="s">
         <v>1153</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A389" s="3" t="s">
         <v>1156</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A390" s="3" t="s">
         <v>1159</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A391" s="3" t="s">
         <v>1162</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A392" s="3" t="s">
         <v>1165</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A393" s="3" t="s">
         <v>1168</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A394" s="3" t="s">
         <v>1171</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A395" s="3" t="s">
         <v>1174</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A396" s="3" t="s">
         <v>1177</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A397" s="3" t="s">
         <v>1180</v>
       </c>
@@ -9505,7 +9505,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A398" s="3" t="s">
         <v>1183</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A399" s="3" t="s">
         <v>1186</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A400" s="3" t="s">
         <v>1189</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
         <v>1192</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A402" s="3" t="s">
         <v>1195</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A403" s="3" t="s">
         <v>1198</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A404" s="3" t="s">
         <v>1201</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A405" s="3" t="s">
         <v>1204</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A406" s="3" t="s">
         <v>1207</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A407" s="3" t="s">
         <v>1210</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A408" s="3" t="s">
         <v>1213</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A409" s="3" t="s">
         <v>1216</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A410" s="3" t="s">
         <v>1219</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A411" s="3" t="s">
         <v>1222</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A412" s="3" t="s">
         <v>1225</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A413" s="3" t="s">
         <v>1228</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A414" s="3" t="s">
         <v>1231</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A415" s="3" t="s">
         <v>1234</v>
       </c>
@@ -9703,7 +9703,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A416" s="3" t="s">
         <v>1237</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A417" s="3" t="s">
         <v>1240</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A418" s="3" t="s">
         <v>1243</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A419" s="3" t="s">
         <v>1246</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A420" s="3" t="s">
         <v>1249</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A421" s="3" t="s">
         <v>1252</v>
       </c>
@@ -9769,7 +9769,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A422" s="3" t="s">
         <v>1255</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A423" s="3" t="s">
         <v>1258</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A424" s="3" t="s">
         <v>1261</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A425" s="3" t="s">
         <v>1264</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A426" s="3" t="s">
         <v>1267</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
         <v>1270</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A428" s="3" t="s">
         <v>1273</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A429" s="3" t="s">
         <v>1276</v>
       </c>
@@ -9857,7 +9857,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A430" s="3" t="s">
         <v>1279</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A431" s="3" t="s">
         <v>1282</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A432" s="3" t="s">
         <v>1285</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A433" s="3" t="s">
         <v>1288</v>
       </c>
@@ -9901,7 +9901,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A434" s="3" t="s">
         <v>1291</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
         <v>1294</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A436" s="3" t="s">
         <v>1297</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
         <v>1300</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A438" s="3" t="s">
         <v>1303</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
         <v>1306</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A440" s="3" t="s">
         <v>1309</v>
       </c>
@@ -9978,7 +9978,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A441" s="3" t="s">
         <v>1312</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
         <v>1315</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A443" s="3" t="s">
         <v>1318</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A444" s="3" t="s">
         <v>1321</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A445" s="3" t="s">
         <v>1324</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A446" s="3" t="s">
         <v>1327</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A447" s="3" t="s">
         <v>1330</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A448" s="3" t="s">
         <v>1333</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A449" s="3" t="s">
         <v>1336</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A450" s="3" t="s">
         <v>1339</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A451" s="3" t="s">
         <v>1342</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A452" s="3" t="s">
         <v>1345</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A453" s="3" t="s">
         <v>1348</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A454" s="3" t="s">
         <v>1351</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A455" s="3" t="s">
         <v>1354</v>
       </c>
@@ -10143,7 +10143,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A456" s="3" t="s">
         <v>1357</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A457" s="3" t="s">
         <v>1360</v>
       </c>
@@ -10165,7 +10165,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
         <v>1363</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A459" s="3" t="s">
         <v>1366</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A460" s="3" t="s">
         <v>1369</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A461" s="3" t="s">
         <v>1372</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A462" s="3" t="s">
         <v>1375</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A463" s="3" t="s">
         <v>1378</v>
       </c>
@@ -10231,7 +10231,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A464" s="3" t="s">
         <v>1381</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A465" s="3" t="s">
         <v>1384</v>
       </c>
@@ -10253,7 +10253,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A466" s="3" t="s">
         <v>1387</v>
       </c>
@@ -10264,7 +10264,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A467" s="3" t="s">
         <v>1390</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A468" s="3" t="s">
         <v>1393</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A469" s="3" t="s">
         <v>1396</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A470" s="3" t="s">
         <v>1399</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A471" s="3" t="s">
         <v>1402</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="472" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A472" s="3" t="s">
         <v>1405</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A473" s="3" t="s">
         <v>1408</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A474" s="3" t="s">
         <v>1411</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A475" s="3" t="s">
         <v>1414</v>
       </c>
@@ -10363,7 +10363,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A476" s="3" t="s">
         <v>1417</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A477" s="3" t="s">
         <v>1420</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A478" s="3" t="s">
         <v>1423</v>
       </c>
@@ -10396,7 +10396,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A479" s="3" t="s">
         <v>1426</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A480" s="3" t="s">
         <v>1429</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A481" s="3" t="s">
         <v>1432</v>
       </c>
@@ -10429,7 +10429,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A482" s="3" t="s">
         <v>1435</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="483" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A483" s="3" t="s">
         <v>1438</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="484" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A484" s="3" t="s">
         <v>1441</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A485" s="3" t="s">
         <v>1444</v>
       </c>
@@ -10473,7 +10473,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="486" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A486" s="3" t="s">
         <v>1447</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="487" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A487" s="3" t="s">
         <v>1450</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="488" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A488" s="3" t="s">
         <v>1453</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="489" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A489" s="3" t="s">
         <v>1456</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="490" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A490" s="3" t="s">
         <v>1459</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="491" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A491" s="3" t="s">
         <v>1462</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="492" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A492" s="3" t="s">
         <v>1465</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="493" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A493" s="3" t="s">
         <v>1468</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="494" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A494" s="3" t="s">
         <v>1471</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="495" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A495" s="3" t="s">
         <v>1474</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="496" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A496" s="3" t="s">
         <v>1477</v>
       </c>
@@ -10594,7 +10594,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="497" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A497" s="3" t="s">
         <v>1480</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="498" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A498" s="3" t="s">
         <v>1483</v>
       </c>
@@ -10616,7 +10616,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="499" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A499" s="3" t="s">
         <v>1486</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="500" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A500" s="3" t="s">
         <v>1489</v>
       </c>
@@ -10638,7 +10638,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="501" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A501" s="3" t="s">
         <v>1492</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="502" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A502" s="3" t="s">
         <v>1495</v>
       </c>
@@ -10660,7 +10660,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="503" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A503" s="3" t="s">
         <v>1498</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="504" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A504" s="3" t="s">
         <v>1501</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="505" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A505" s="3" t="s">
         <v>1504</v>
       </c>
@@ -10693,7 +10693,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="506" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A506" s="3" t="s">
         <v>1507</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="507" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A507" s="3" t="s">
         <v>1510</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="508" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A508" s="3" t="s">
         <v>1513</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="509" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A509" s="3" t="s">
         <v>1516</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="510" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A510" s="3" t="s">
         <v>1519</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="511" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A511" s="3" t="s">
         <v>1522</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="512" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A512" s="3" t="s">
         <v>1525</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="513" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A513" s="3" t="s">
         <v>1528</v>
       </c>
@@ -10781,7 +10781,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="514" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A514" s="3" t="s">
         <v>1531</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="515" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A515" s="3" t="s">
         <v>1534</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="516" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A516" s="3" t="s">
         <v>1537</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="517" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A517" s="3" t="s">
         <v>1540</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="518" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A518" s="3" t="s">
         <v>1543</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A519" s="3" t="s">
         <v>1546</v>
       </c>
@@ -10854,18 +10854,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9596D90B-B450-4C1F-B579-C22603ED28C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46DDFFF4-5A18-45DA-894F-C8525F0490AE}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" customWidth="1"/>
-    <col min="2" max="2" width="44.5546875" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1549</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1551</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1553</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1555</v>
       </c>
@@ -11155,13 +11155,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D7EE2ED-C936-4867-9A75-5E4D3077A1B1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFEE82FF-CB6A-4B08-816A-0243A96177BE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3680A329-1E02-4971-AA9D-0033BC98723E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D26D798-9D31-4399-8C48-1D95C207ADEA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{998689B2-2225-4D1C-8C82-411AF41E99C3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62B016A2-23F3-4165-8FF1-D8C315260EDC}"/>
 </file>